--- a/7/1/2/2/Producto Interno Bruto 2003 a 2021 - Anual.xlsx
+++ b/7/1/2/2/Producto Interno Bruto 2003 a 2021 - Anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Serie</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Mayo.2021</t>
+  </si>
+  <si>
+    <t>Agosto.2021</t>
   </si>
   <si>
     <t>2003</t>
@@ -602,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG19"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,10 +789,13 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>51156</v>
@@ -965,10 +971,13 @@
       <c r="BG2">
         <v>86943</v>
       </c>
+      <c r="BH2">
+        <v>86943</v>
+      </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:60">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>54217</v>
@@ -1144,10 +1153,13 @@
       <c r="BG3">
         <v>93211</v>
       </c>
+      <c r="BH3">
+        <v>93211</v>
+      </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:60">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>57316</v>
@@ -1323,10 +1335,13 @@
       <c r="BG4">
         <v>98564</v>
       </c>
+      <c r="BH4">
+        <v>98564</v>
+      </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:60">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>59589</v>
@@ -1502,10 +1517,13 @@
       <c r="BG5">
         <v>104790</v>
       </c>
+      <c r="BH5">
+        <v>104790</v>
+      </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:60">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>62793</v>
@@ -1669,10 +1687,13 @@
       <c r="BG6">
         <v>109931</v>
       </c>
+      <c r="BH6">
+        <v>109931</v>
+      </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:60">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7">
         <v>64677</v>
@@ -1824,10 +1845,13 @@
       <c r="BG7">
         <v>113811</v>
       </c>
+      <c r="BH7">
+        <v>113811</v>
+      </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:60">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>63963</v>
@@ -1967,10 +1991,13 @@
       <c r="BG8">
         <v>112030</v>
       </c>
+      <c r="BH8">
+        <v>112030</v>
+      </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:60">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R9">
         <v>67167</v>
@@ -2098,10 +2125,13 @@
       <c r="BG9">
         <v>118578</v>
       </c>
+      <c r="BH9">
+        <v>118578</v>
+      </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:60">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V10">
         <v>104437</v>
@@ -2217,10 +2247,13 @@
       <c r="BG10">
         <v>125824</v>
       </c>
+      <c r="BH10">
+        <v>125824</v>
+      </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:60">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z11">
         <v>109751</v>
@@ -2324,10 +2357,13 @@
       <c r="BG11">
         <v>132516</v>
       </c>
+      <c r="BH11">
+        <v>132516</v>
+      </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:60">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD12">
         <v>114022</v>
@@ -2419,10 +2455,13 @@
       <c r="BG12">
         <v>137876</v>
       </c>
+      <c r="BH12">
+        <v>137876</v>
+      </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:60">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH13">
         <v>116425</v>
@@ -2502,10 +2541,13 @@
       <c r="BG13">
         <v>140312</v>
       </c>
+      <c r="BH13">
+        <v>140312</v>
+      </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:60">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL14">
         <v>118525</v>
@@ -2573,10 +2615,13 @@
       <c r="BG14">
         <v>143545</v>
       </c>
+      <c r="BH14">
+        <v>143545</v>
+      </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:60">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP15">
         <v>145957</v>
@@ -2632,10 +2677,13 @@
       <c r="BG15">
         <v>146001</v>
       </c>
+      <c r="BH15">
+        <v>146001</v>
+      </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:60">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT16">
         <v>147530</v>
@@ -2679,10 +2727,13 @@
       <c r="BG16">
         <v>147730</v>
       </c>
+      <c r="BH16">
+        <v>147730</v>
+      </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:60">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AX17">
         <v>153758</v>
@@ -2714,10 +2765,13 @@
       <c r="BG17">
         <v>153217</v>
       </c>
+      <c r="BH17">
+        <v>153217</v>
+      </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:60">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB18">
         <v>155190</v>
@@ -2737,15 +2791,21 @@
       <c r="BG18">
         <v>154660</v>
       </c>
+      <c r="BH18">
+        <v>154660</v>
+      </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:60">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BF19">
         <v>145734</v>
       </c>
       <c r="BG19">
+        <v>145734</v>
+      </c>
+      <c r="BH19">
         <v>145734</v>
       </c>
     </row>
